--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>起始点</t>
   </si>
@@ -188,12 +188,38 @@
     <t>attr_mod_val</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>结构体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool,long,float,int,string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStruct[test1 , test2 , test3 , test4 , test5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1231,asdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1232,asdf</t>
+  </si>
+  <si>
+    <t>True , 123,123.2,1233,asdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +254,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -327,10 +347,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -647,11 +667,11 @@
     <col min="5" max="5" width="13.875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="9" max="9" width="54.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -676,8 +696,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -702,8 +725,11 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -728,8 +754,11 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -754,8 +783,11 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -780,8 +812,11 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -806,8 +841,11 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -832,46 +870,49 @@
       <c r="H7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>起始点</t>
   </si>
@@ -213,6 +213,24 @@
   </si>
   <si>
     <t>True , 123,123.2,1233,asdf</t>
+  </si>
+  <si>
+    <t>结构体数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bool,long,float,int,string]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1232,asdf]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1233,asdf]</t>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1234,asdf]</t>
   </si>
 </sst>
 </file>
@@ -653,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -668,10 +686,10 @@
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -699,8 +717,11 @@
       <c r="I1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -728,8 +749,11 @@
       <c r="I2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -757,8 +781,11 @@
       <c r="I3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -786,8 +813,11 @@
       <c r="I4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -815,8 +845,11 @@
       <c r="I5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -844,8 +877,11 @@
       <c r="I6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -873,46 +909,49 @@
       <c r="I7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>起始点</t>
   </si>
@@ -216,21 +216,25 @@
   </si>
   <si>
     <t>结构体数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[bool,long,float,int,string]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1232,asdf]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1233,asdf]</t>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf],[0 , 123,123.2,1234,asdf]</t>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1232,asdf]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1233,asdf]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1234,asdf]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStructArray[test1 , test2 , test3 , test4 , test5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -750,7 +754,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -814,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -678,7 +678,7 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>起始点</t>
   </si>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestStruct[test1 , test2 , test3 , test4 , test5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>True , 123,123.2,1231,asdf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,22 +214,30 @@
     <t>结构体数组</t>
   </si>
   <si>
+    <t>TestStructArray[test1 , test2 , test3 , test4 , test5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,2zxcv]</t>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,3zxcv]</t>
+  </si>
+  <si>
     <t>[bool,long,float,int,string]</t>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1232,asdf]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1233,asdf]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,asdf][0 , 123,123.2,1234,asdf]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStructArray[test1 , test2 , test3 , test4 , test5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,1zxcv]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2003,2005,2006]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStruct
+[test1 , test2 , test3 , test4 , test5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +293,14 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -338,7 +350,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,9 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -373,6 +382,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -677,16 +692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="54.875" bestFit="1" customWidth="1"/>
@@ -697,22 +712,22 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -722,10 +737,10 @@
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -735,10 +750,10 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
@@ -750,11 +765,11 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>47</v>
+      <c r="I2" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -767,10 +782,10 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -786,7 +801,7 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -799,10 +814,10 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -826,15 +841,15 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
@@ -847,10 +862,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -863,10 +878,10 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
@@ -879,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -895,10 +910,10 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
@@ -911,10 +926,10 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -237,7 +237,7 @@
   </si>
   <si>
     <t>TestStruct
-[test1 , test2 , test3 , test4 , test5]</t>
+[test1 , test2 , test3 , test4 , test6]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +693,7 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:I13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
